--- a/temp_files/14 15 PO and PSO.xlsx
+++ b/temp_files/14 15 PO and PSO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raynf\OneDrive\Desktop\formfilling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\PYQs\form filling\automated_form_fill\temp_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFB425F-1B1E-47E9-B1D5-F1496A23B737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11008257-5E28-4690-A3CD-576C8FB8F232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,16 +112,16 @@
     <t>Use professional best engineering practices &amp; strategies for operation &amp; maintenance of mechanical systems &amp; processes.</t>
   </si>
   <si>
-    <t xml:space="preserve">text:The students after successful completion of the course will acquire: </t>
-  </si>
-  <si>
     <t>heading:PROGRAM SPECIFIC OUTCOMES [PSO's].</t>
   </si>
   <si>
-    <t>text:At the end of the program graduates will be able to:</t>
-  </si>
-  <si>
     <t xml:space="preserve">heading:List of PROGRAM OUTCOMES [PO`s] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">text: </t>
+  </si>
+  <si>
+    <t>text:</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -513,7 +513,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -955,7 +955,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -985,7 +985,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
